--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_22.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_22.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>877661.4553527957</v>
+        <v>916742.1651021225</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18157355.41581893</v>
+        <v>16877859.47655641</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3559241.608843296</v>
+        <v>2305207.638772118</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6159995.780614408</v>
+        <v>6670042.209763736</v>
       </c>
     </row>
     <row r="11">
@@ -665,13 +667,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>128.970089005584</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>119.5736322661444</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -835,7 +837,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,16 +867,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>122.9742767430581</v>
+        <v>75.86622810093073</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>429.4369973932878</v>
@@ -908,10 +910,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>342.6791515418352</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -953,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>184.881664452623</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -1054,7 +1056,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -1063,16 +1065,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>3.139541480023263</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>137.5563529521258</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1133,16 +1135,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>270.3398454666698</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1190,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>148.3555818371253</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -1303,13 +1305,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170461</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>67.42894579208335</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1370,10 +1372,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1382,7 +1384,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>195.5695779437707</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1430,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>164.0646111947721</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1534,7 +1536,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1543,10 +1545,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>235.4893695038533</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1607,25 +1609,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>368.4376833261082</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>195.1569564646393</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1664,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1777,13 +1779,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022813</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>67.42894579208335</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -2017,10 +2019,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>67.42894579208244</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2093,7 +2095,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629699</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
@@ -2254,10 +2256,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2494,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
-        <v>173.7040795765152</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2725,7 +2727,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>160.788496495006</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2965,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>18.05677735225717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>152.5168019860612</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -3199,13 +3201,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3326,7 +3328,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430781</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
@@ -3436,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>160.788496495006</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,10 +3474,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3484,7 +3486,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>125.6544692828921</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3667,19 +3669,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>83.42661545872123</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>122.9742767430585</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3740,25 +3742,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>176.631687184443</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>99.92737017624191</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3910,7 +3912,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>3.139541480023263</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -3989,7 +3991,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4034,13 +4036,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>118.1733039720891</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>213.136763667284</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4135,7 +4137,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>31.24391673888117</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1486.937198143034</v>
+        <v>2210.394775134949</v>
       </c>
       <c r="C2" t="n">
-        <v>1048.794725326457</v>
+        <v>1772.252302318372</v>
       </c>
       <c r="D2" t="n">
-        <v>612.8849405009018</v>
+        <v>1336.342517492816</v>
       </c>
       <c r="E2" t="n">
-        <v>612.8849405009018</v>
+        <v>902.5677726511115</v>
       </c>
       <c r="F2" t="n">
-        <v>185.0175109101096</v>
+        <v>474.7003430603192</v>
       </c>
       <c r="G2" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="H2" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="I2" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J2" t="n">
-        <v>489.9993811856698</v>
+        <v>508.557199136501</v>
       </c>
       <c r="K2" t="n">
-        <v>1167.464966128475</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="L2" t="n">
-        <v>1167.464966128475</v>
+        <v>2250.02607317902</v>
       </c>
       <c r="M2" t="n">
-        <v>1167.464966128475</v>
+        <v>2250.02607317902</v>
       </c>
       <c r="N2" t="n">
-        <v>1167.464966128475</v>
+        <v>2250.02607317902</v>
       </c>
       <c r="O2" t="n">
-        <v>1344.116250983141</v>
+        <v>2290.316923387164</v>
       </c>
       <c r="P2" t="n">
-        <v>2021.581835925947</v>
+        <v>3118.62679822056</v>
       </c>
       <c r="Q2" t="n">
-        <v>2568.080621884541</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="R2" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="S2" t="n">
-        <v>2737.234686637598</v>
+        <v>3581.473710362991</v>
       </c>
       <c r="T2" t="n">
-        <v>2737.234686637598</v>
+        <v>3581.473710362991</v>
       </c>
       <c r="U2" t="n">
-        <v>2737.234686637598</v>
+        <v>3460.692263629512</v>
       </c>
       <c r="V2" t="n">
-        <v>2737.234686637598</v>
+        <v>3460.692263629512</v>
       </c>
       <c r="W2" t="n">
-        <v>2332.379232048631</v>
+        <v>3055.836809040546</v>
       </c>
       <c r="X2" t="n">
-        <v>1913.236768627942</v>
+        <v>2636.694345619856</v>
       </c>
       <c r="Y2" t="n">
-        <v>1913.236768627942</v>
+        <v>2636.694345619856</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C3" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D3" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E3" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F3" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G3" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H3" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="I3" t="n">
-        <v>54.74469373275195</v>
+        <v>99.36618484404069</v>
       </c>
       <c r="J3" t="n">
-        <v>54.74469373275195</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K3" t="n">
-        <v>54.74469373275195</v>
+        <v>423.924509810253</v>
       </c>
       <c r="L3" t="n">
-        <v>54.74469373275195</v>
+        <v>423.924509810253</v>
       </c>
       <c r="M3" t="n">
-        <v>499.7799316366797</v>
+        <v>423.924509810253</v>
       </c>
       <c r="N3" t="n">
-        <v>499.7799316366797</v>
+        <v>423.924509810253</v>
       </c>
       <c r="O3" t="n">
-        <v>499.7799316366797</v>
+        <v>423.924509810253</v>
       </c>
       <c r="P3" t="n">
-        <v>1177.245516579485</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q3" t="n">
-        <v>1717.984455211561</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R3" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S3" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T3" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U3" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V3" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W3" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X3" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y3" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1045.142905119309</v>
+        <v>1152.360672295464</v>
       </c>
       <c r="C4" t="n">
-        <v>872.5811936025335</v>
+        <v>979.7989607786893</v>
       </c>
       <c r="D4" t="n">
-        <v>706.7032008040562</v>
+        <v>813.920967980212</v>
       </c>
       <c r="E4" t="n">
-        <v>536.9451970547935</v>
+        <v>644.1629642309493</v>
       </c>
       <c r="F4" t="n">
-        <v>360.2381430165498</v>
+        <v>467.4559101927056</v>
       </c>
       <c r="G4" t="n">
-        <v>194.6468680423774</v>
+        <v>301.8646352185332</v>
       </c>
       <c r="H4" t="n">
-        <v>54.74469373275195</v>
+        <v>161.9624609089078</v>
       </c>
       <c r="I4" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J4" t="n">
-        <v>141.3243788974418</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K4" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L4" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M4" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N4" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O4" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P4" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q4" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R4" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S4" t="n">
-        <v>2547.187862480948</v>
+        <v>2613.329567949079</v>
       </c>
       <c r="T4" t="n">
-        <v>2547.187862480948</v>
+        <v>2367.450121527534</v>
       </c>
       <c r="U4" t="n">
-        <v>2268.754861734053</v>
+        <v>2089.017120780639</v>
       </c>
       <c r="V4" t="n">
-        <v>1981.799353604483</v>
+        <v>2089.017120780639</v>
       </c>
       <c r="W4" t="n">
-        <v>1709.772949190775</v>
+        <v>1816.990716366931</v>
       </c>
       <c r="X4" t="n">
-        <v>1464.381194524188</v>
+        <v>1571.598961700343</v>
       </c>
       <c r="Y4" t="n">
-        <v>1236.961523838296</v>
+        <v>1344.179291014452</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1318.201488914845</v>
+        <v>2006.541971984244</v>
       </c>
       <c r="C5" t="n">
-        <v>1318.201488914845</v>
+        <v>2006.541971984244</v>
       </c>
       <c r="D5" t="n">
-        <v>1318.201488914845</v>
+        <v>1570.632187158689</v>
       </c>
       <c r="E5" t="n">
-        <v>884.4267440731403</v>
+        <v>1136.857442316984</v>
       </c>
       <c r="F5" t="n">
-        <v>456.5593144823481</v>
+        <v>708.9900127261917</v>
       </c>
       <c r="G5" t="n">
-        <v>55.16148310561195</v>
+        <v>362.8494556132268</v>
       </c>
       <c r="H5" t="n">
-        <v>55.16148310561195</v>
+        <v>73.71930105644309</v>
       </c>
       <c r="I5" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J5" t="n">
-        <v>54.74469373275195</v>
+        <v>508.557199136501</v>
       </c>
       <c r="K5" t="n">
-        <v>54.74469373275195</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="L5" t="n">
-        <v>732.2102786755574</v>
+        <v>1383.198341302823</v>
       </c>
       <c r="M5" t="n">
-        <v>1409.675863618363</v>
+        <v>1383.198341302823</v>
       </c>
       <c r="N5" t="n">
-        <v>2087.141448561168</v>
+        <v>1383.198341302823</v>
       </c>
       <c r="O5" t="n">
-        <v>2568.080621884541</v>
+        <v>2290.316923387164</v>
       </c>
       <c r="P5" t="n">
-        <v>2568.080621884541</v>
+        <v>3118.62679822056</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.080621884541</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="R5" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="S5" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="T5" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="U5" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="V5" t="n">
-        <v>2550.485530624847</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="W5" t="n">
-        <v>2145.630076035881</v>
+        <v>3260.270129590188</v>
       </c>
       <c r="X5" t="n">
-        <v>1726.487612615192</v>
+        <v>2841.127666169499</v>
       </c>
       <c r="Y5" t="n">
-        <v>1318.201488914845</v>
+        <v>2432.841542469152</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C6" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D6" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E6" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F6" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G6" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H6" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="I6" t="n">
-        <v>54.74469373275195</v>
+        <v>99.36618484404069</v>
       </c>
       <c r="J6" t="n">
-        <v>54.74469373275195</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K6" t="n">
-        <v>54.74469373275195</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="L6" t="n">
-        <v>54.74469373275195</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="M6" t="n">
-        <v>732.2102786755574</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="N6" t="n">
-        <v>1409.675863618363</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="O6" t="n">
-        <v>1717.984455211561</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P6" t="n">
-        <v>1717.984455211561</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q6" t="n">
-        <v>1717.984455211561</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R6" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S6" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T6" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U6" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V6" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W6" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X6" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y6" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>742.8207098557364</v>
+        <v>803.0919067404456</v>
       </c>
       <c r="C7" t="n">
-        <v>570.2589983389613</v>
+        <v>803.0919067404456</v>
       </c>
       <c r="D7" t="n">
-        <v>404.381005540484</v>
+        <v>637.2139139419683</v>
       </c>
       <c r="E7" t="n">
-        <v>234.6230017912213</v>
+        <v>467.4559101927056</v>
       </c>
       <c r="F7" t="n">
-        <v>57.91594775297747</v>
+        <v>467.4559101927056</v>
       </c>
       <c r="G7" t="n">
-        <v>54.74469373275195</v>
+        <v>301.8646352185332</v>
       </c>
       <c r="H7" t="n">
-        <v>54.74469373275195</v>
+        <v>161.9624609089078</v>
       </c>
       <c r="I7" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J7" t="n">
-        <v>141.3243788974418</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K7" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L7" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M7" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N7" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O7" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P7" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q7" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R7" t="n">
-        <v>2649.986482340924</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S7" t="n">
-        <v>2490.74511363892</v>
+        <v>2551.016310523629</v>
       </c>
       <c r="T7" t="n">
-        <v>2244.865667217376</v>
+        <v>2305.136864102084</v>
       </c>
       <c r="U7" t="n">
-        <v>1966.432666470481</v>
+        <v>2026.70386335519</v>
       </c>
       <c r="V7" t="n">
-        <v>1679.477158340911</v>
+        <v>1739.74835522562</v>
       </c>
       <c r="W7" t="n">
-        <v>1407.450753927203</v>
+        <v>1467.721950811912</v>
       </c>
       <c r="X7" t="n">
-        <v>1162.058999260615</v>
+        <v>1222.330196145324</v>
       </c>
       <c r="Y7" t="n">
-        <v>934.6393285747235</v>
+        <v>994.9105254594326</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>928.7969513748842</v>
+        <v>1643.92502191807</v>
       </c>
       <c r="C8" t="n">
-        <v>490.6544785583075</v>
+        <v>1370.854470941636</v>
       </c>
       <c r="D8" t="n">
-        <v>54.74469373275195</v>
+        <v>934.9446861160802</v>
       </c>
       <c r="E8" t="n">
-        <v>54.74469373275195</v>
+        <v>501.1699412743753</v>
       </c>
       <c r="F8" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="G8" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="H8" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="I8" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="J8" t="n">
-        <v>489.9993811856698</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="K8" t="n">
-        <v>489.9993811856698</v>
+        <v>907.652803641761</v>
       </c>
       <c r="L8" t="n">
-        <v>489.9993811856698</v>
+        <v>1383.198341302822</v>
       </c>
       <c r="M8" t="n">
-        <v>1167.464966128475</v>
+        <v>1383.198341302822</v>
       </c>
       <c r="N8" t="n">
-        <v>1167.464966128475</v>
+        <v>1383.198341302822</v>
       </c>
       <c r="O8" t="n">
-        <v>1344.116250983141</v>
+        <v>2290.316923387163</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.581835925947</v>
+        <v>3118.62679822056</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.080621884541</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="R8" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="S8" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="T8" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="U8" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="V8" t="n">
-        <v>2587.380563569795</v>
+        <v>3302.50863411298</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.525108980828</v>
+        <v>2897.653179524013</v>
       </c>
       <c r="X8" t="n">
-        <v>1763.382645560139</v>
+        <v>2478.510716103324</v>
       </c>
       <c r="Y8" t="n">
-        <v>1355.096521859792</v>
+        <v>2070.224592402978</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C9" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D9" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E9" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F9" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G9" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H9" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="I9" t="n">
-        <v>80.80836689320955</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="J9" t="n">
-        <v>405.3666918594219</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="K9" t="n">
-        <v>923.3460921744155</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="L9" t="n">
-        <v>923.3460921744155</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="M9" t="n">
-        <v>923.3460921744155</v>
+        <v>829.4236910780512</v>
       </c>
       <c r="N9" t="n">
-        <v>1600.811677117221</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="O9" t="n">
-        <v>1600.811677117221</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="P9" t="n">
-        <v>1600.811677117221</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="Q9" t="n">
-        <v>1600.811677117221</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="R9" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S9" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T9" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U9" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V9" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W9" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X9" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y9" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1133.802854344633</v>
+        <v>782.7963491011951</v>
       </c>
       <c r="C10" t="n">
-        <v>961.2411428278582</v>
+        <v>610.2346375844201</v>
       </c>
       <c r="D10" t="n">
-        <v>795.3631500293809</v>
+        <v>444.3566447859428</v>
       </c>
       <c r="E10" t="n">
-        <v>625.6051462801182</v>
+        <v>274.59864103668</v>
       </c>
       <c r="F10" t="n">
-        <v>448.8980922418745</v>
+        <v>97.89158699843622</v>
       </c>
       <c r="G10" t="n">
-        <v>283.3068172677021</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="H10" t="n">
-        <v>143.4046429580766</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="I10" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="J10" t="n">
-        <v>141.3243788974418</v>
+        <v>159.8821968482729</v>
       </c>
       <c r="K10" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L10" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M10" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N10" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O10" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P10" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q10" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R10" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S10" t="n">
-        <v>2671.404303635552</v>
+        <v>2530.720752884379</v>
       </c>
       <c r="T10" t="n">
-        <v>2425.524857214007</v>
+        <v>2284.841306462834</v>
       </c>
       <c r="U10" t="n">
-        <v>2357.414810959378</v>
+        <v>2006.40830571594</v>
       </c>
       <c r="V10" t="n">
-        <v>2070.459302829808</v>
+        <v>1719.45279758637</v>
       </c>
       <c r="W10" t="n">
-        <v>1798.4328984161</v>
+        <v>1447.426393172662</v>
       </c>
       <c r="X10" t="n">
-        <v>1553.041143749512</v>
+        <v>1202.034638506074</v>
       </c>
       <c r="Y10" t="n">
-        <v>1325.62147306362</v>
+        <v>974.6149678201823</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1317.784699541985</v>
+        <v>2006.541971984243</v>
       </c>
       <c r="C11" t="n">
-        <v>1317.784699541985</v>
+        <v>1568.399499167667</v>
       </c>
       <c r="D11" t="n">
-        <v>1317.784699541985</v>
+        <v>1132.489714342111</v>
       </c>
       <c r="E11" t="n">
-        <v>884.0099547002803</v>
+        <v>698.7149695004064</v>
       </c>
       <c r="F11" t="n">
-        <v>456.1425251094881</v>
+        <v>270.8475399096141</v>
       </c>
       <c r="G11" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="H11" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="I11" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="J11" t="n">
-        <v>489.9993811856698</v>
+        <v>508.557199136501</v>
       </c>
       <c r="K11" t="n">
-        <v>1167.464966128475</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="L11" t="n">
-        <v>1167.464966128475</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="M11" t="n">
-        <v>1167.464966128475</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="N11" t="n">
-        <v>1167.464966128475</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="O11" t="n">
-        <v>1844.930551071281</v>
+        <v>2250.026073179019</v>
       </c>
       <c r="P11" t="n">
-        <v>2190.735900679003</v>
+        <v>3078.335948012416</v>
       </c>
       <c r="Q11" t="n">
-        <v>2737.234686637598</v>
+        <v>3624.83473397101</v>
       </c>
       <c r="R11" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="S11" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="T11" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="U11" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="V11" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="W11" t="n">
-        <v>2571.512857147929</v>
+        <v>3260.270129590187</v>
       </c>
       <c r="X11" t="n">
-        <v>2152.37039372724</v>
+        <v>2841.127666169498</v>
       </c>
       <c r="Y11" t="n">
-        <v>1744.084270026893</v>
+        <v>2432.841542469151</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C12" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D12" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E12" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F12" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G12" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H12" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="I12" t="n">
-        <v>54.74469373275195</v>
+        <v>99.36618484404067</v>
       </c>
       <c r="J12" t="n">
-        <v>54.74469373275195</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K12" t="n">
-        <v>732.2102786755574</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="L12" t="n">
-        <v>732.2102786755574</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="M12" t="n">
-        <v>732.2102786755574</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="N12" t="n">
-        <v>732.2102786755574</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="O12" t="n">
-        <v>732.2102786755574</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P12" t="n">
-        <v>1409.675863618363</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q12" t="n">
-        <v>1717.984455211561</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R12" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S12" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T12" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U12" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V12" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W12" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X12" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y12" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>964.0448505953706</v>
+        <v>923.7985487605142</v>
       </c>
       <c r="C13" t="n">
-        <v>791.4831390785955</v>
+        <v>751.2368372437392</v>
       </c>
       <c r="D13" t="n">
-        <v>625.6051462801182</v>
+        <v>585.3588444452619</v>
       </c>
       <c r="E13" t="n">
-        <v>625.6051462801182</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F13" t="n">
-        <v>448.8980922418745</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G13" t="n">
-        <v>283.3068172677021</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="H13" t="n">
-        <v>143.4046429580766</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="I13" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="J13" t="n">
-        <v>141.3243788974418</v>
+        <v>159.8821968482729</v>
       </c>
       <c r="K13" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L13" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M13" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N13" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O13" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P13" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q13" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R13" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S13" t="n">
-        <v>2671.404303635552</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T13" t="n">
-        <v>2425.524857214007</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U13" t="n">
-        <v>2187.656807210115</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V13" t="n">
-        <v>1900.701299080545</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W13" t="n">
-        <v>1628.674894666837</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X13" t="n">
-        <v>1383.283140000249</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y13" t="n">
-        <v>1155.863469314358</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>716.0341243765137</v>
+        <v>2006.541971984243</v>
       </c>
       <c r="C14" t="n">
-        <v>716.0341243765137</v>
+        <v>1568.399499167667</v>
       </c>
       <c r="D14" t="n">
-        <v>716.0341243765137</v>
+        <v>1132.489714342111</v>
       </c>
       <c r="E14" t="n">
-        <v>343.8748482895357</v>
+        <v>698.7149695004064</v>
       </c>
       <c r="F14" t="n">
-        <v>343.8748482895357</v>
+        <v>270.8475399096141</v>
       </c>
       <c r="G14" t="n">
-        <v>343.8748482895357</v>
+        <v>73.71930105644307</v>
       </c>
       <c r="H14" t="n">
-        <v>54.74469373275195</v>
+        <v>73.71930105644307</v>
       </c>
       <c r="I14" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="J14" t="n">
-        <v>489.9993811856698</v>
+        <v>188.2282532188987</v>
       </c>
       <c r="K14" t="n">
-        <v>1167.464966128475</v>
+        <v>1022.578545177077</v>
       </c>
       <c r="L14" t="n">
-        <v>1167.464966128475</v>
+        <v>1929.697127261417</v>
       </c>
       <c r="M14" t="n">
-        <v>1167.464966128475</v>
+        <v>1929.697127261417</v>
       </c>
       <c r="N14" t="n">
-        <v>1167.464966128475</v>
+        <v>1929.697127261417</v>
       </c>
       <c r="O14" t="n">
-        <v>1844.930551071281</v>
+        <v>2836.815709345758</v>
       </c>
       <c r="P14" t="n">
-        <v>2021.581835925947</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="Q14" t="n">
-        <v>2568.080621884541</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="R14" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="S14" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="T14" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="U14" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="V14" t="n">
-        <v>2374.617736571424</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="W14" t="n">
-        <v>1969.762281982458</v>
+        <v>3260.270129590187</v>
       </c>
       <c r="X14" t="n">
-        <v>1550.619818561768</v>
+        <v>2841.127666169498</v>
       </c>
       <c r="Y14" t="n">
-        <v>1142.333694861421</v>
+        <v>2432.841542469151</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C15" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D15" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E15" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F15" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G15" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H15" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="I15" t="n">
-        <v>54.74469373275195</v>
+        <v>99.36618484404067</v>
       </c>
       <c r="J15" t="n">
-        <v>363.05328532595</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K15" t="n">
-        <v>1040.518870268755</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="L15" t="n">
-        <v>1040.518870268755</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="M15" t="n">
-        <v>1040.518870268755</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="N15" t="n">
-        <v>1040.518870268755</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="O15" t="n">
-        <v>1040.518870268755</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P15" t="n">
-        <v>1717.984455211561</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q15" t="n">
-        <v>1717.984455211561</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R15" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S15" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T15" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U15" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V15" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W15" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X15" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y15" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1133.802854344633</v>
+        <v>761.378527806567</v>
       </c>
       <c r="C16" t="n">
-        <v>961.2411428278582</v>
+        <v>588.816816289792</v>
       </c>
       <c r="D16" t="n">
-        <v>795.3631500293809</v>
+        <v>422.9388234913147</v>
       </c>
       <c r="E16" t="n">
-        <v>625.6051462801182</v>
+        <v>253.1808197420519</v>
       </c>
       <c r="F16" t="n">
-        <v>448.8980922418745</v>
+        <v>76.47376570380814</v>
       </c>
       <c r="G16" t="n">
-        <v>283.3068172677021</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="H16" t="n">
-        <v>143.4046429580766</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="I16" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="J16" t="n">
-        <v>141.3243788974418</v>
+        <v>159.8821968482729</v>
       </c>
       <c r="K16" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L16" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M16" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N16" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O16" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P16" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q16" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R16" t="n">
-        <v>2671.404303635552</v>
+        <v>2668.544300291755</v>
       </c>
       <c r="S16" t="n">
-        <v>2671.404303635552</v>
+        <v>2509.302931589751</v>
       </c>
       <c r="T16" t="n">
-        <v>2425.524857214007</v>
+        <v>2263.423485168206</v>
       </c>
       <c r="U16" t="n">
-        <v>2357.414810959378</v>
+        <v>1984.990484421312</v>
       </c>
       <c r="V16" t="n">
-        <v>2070.459302829808</v>
+        <v>1698.034976291742</v>
       </c>
       <c r="W16" t="n">
-        <v>1798.4328984161</v>
+        <v>1426.008571878034</v>
       </c>
       <c r="X16" t="n">
-        <v>1553.041143749512</v>
+        <v>1180.616817211446</v>
       </c>
       <c r="Y16" t="n">
-        <v>1325.62147306362</v>
+        <v>953.1971465255542</v>
       </c>
     </row>
     <row r="17">
@@ -5595,19 +5597,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
         <v>1107.588885023173</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5698,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
         <v>391.8077842004234</v>
@@ -5762,40 +5764,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2683.3639582443</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1041.416826573035</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>868.8551150562604</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>702.9771222577831</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>533.2191185085204</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>356.5120644702766</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6174,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2543.461783934675</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2265.02878318778</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1978.07327505821</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1706.046870644502</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1460.655115977914</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1233.235445292023</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6214,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2334.36864173419</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>4440.279291740943</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>4986.778077699538</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>949.5782250957668</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C28" t="n">
-        <v>777.0165135789917</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D28" t="n">
-        <v>611.1385207805145</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E28" t="n">
-        <v>441.3805170312517</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F28" t="n">
-        <v>264.6734629930079</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.502628878951</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2451.623182457406</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2173.190181710511</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1886.234673580942</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W28" t="n">
-        <v>1614.208269167233</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>1368.816514500646</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y28" t="n">
-        <v>1141.396843814754</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="29">
@@ -6449,40 +6451,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6500,13 +6502,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="30">
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>970.9960463903949</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C31" t="n">
-        <v>798.4343348736198</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D31" t="n">
-        <v>632.5563420751425</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E31" t="n">
-        <v>462.7983383258798</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>286.091284287636</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>120.5000093134636</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6649,22 +6651,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="T31" t="n">
-        <v>2473.041003752034</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U31" t="n">
-        <v>2194.608003005139</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V31" t="n">
-        <v>1907.65249487557</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W31" t="n">
-        <v>1635.626090461861</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X31" t="n">
-        <v>1390.234335795274</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y31" t="n">
-        <v>1162.814665109382</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6688,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6701,16 +6703,16 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>1286.300469346935</v>
       </c>
       <c r="L32" t="n">
-        <v>1371.865819681875</v>
+        <v>1286.300469346935</v>
       </c>
       <c r="M32" t="n">
-        <v>2528.913654892426</v>
+        <v>2443.348304557486</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="O32" t="n">
         <v>3569.079287993933</v>
@@ -6774,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1336.088111831086</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1336.088111831086</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1336.088111831086</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1008.757289365886</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C34" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2473.041003752034</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2194.608003005139</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V34" t="n">
-        <v>1907.65249487557</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W34" t="n">
-        <v>1635.626090461861</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X34" t="n">
-        <v>1390.234335795274</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y34" t="n">
-        <v>1162.814665109382</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="35">
@@ -6923,64 +6925,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>388.1086717343205</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>1463.16863798718</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1181.319000882661</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>611.1385207805145</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>441.3805170312517</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>264.6734629930079</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7122,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T37" t="n">
-        <v>2538.261260176947</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U37" t="n">
-        <v>2259.828259430053</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V37" t="n">
-        <v>1972.872751300483</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W37" t="n">
-        <v>1845.949044954127</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X37" t="n">
-        <v>1600.55729028754</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y37" t="n">
-        <v>1373.137619601648</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="38">
@@ -7160,13 +7162,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7181,7 +7183,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
         <v>2588.899621423627</v>
@@ -7211,13 +7213,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>790.3368563937634</v>
+        <v>3486.780615022739</v>
       </c>
       <c r="C40" t="n">
-        <v>617.7751448769883</v>
+        <v>3314.218903505964</v>
       </c>
       <c r="D40" t="n">
-        <v>451.897152078511</v>
+        <v>3148.340910707486</v>
       </c>
       <c r="E40" t="n">
-        <v>367.6278435343481</v>
+        <v>2978.582906958224</v>
       </c>
       <c r="F40" t="n">
-        <v>190.9207894961043</v>
+        <v>2801.87585291998</v>
       </c>
       <c r="G40" t="n">
-        <v>190.9207894961043</v>
+        <v>2636.284577945808</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I40" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J40" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K40" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L40" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M40" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N40" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O40" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P40" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q40" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>4988.825572384377</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008508</v>
+        <v>4710.392571637482</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878938</v>
+        <v>4423.437063507913</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.96690046523</v>
+        <v>4151.410659094205</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.575145798642</v>
+        <v>3906.018904427618</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1554751127505</v>
+        <v>3678.599233741726</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1790.855915180241</v>
+        <v>1080.983618291963</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.713442363665</v>
+        <v>1080.983618291963</v>
       </c>
       <c r="D41" t="n">
-        <v>916.8036575381091</v>
+        <v>1080.983618291963</v>
       </c>
       <c r="E41" t="n">
-        <v>483.0289126964042</v>
+        <v>902.5677726511115</v>
       </c>
       <c r="F41" t="n">
-        <v>55.16148310561195</v>
+        <v>474.7003430603192</v>
       </c>
       <c r="G41" t="n">
-        <v>55.16148310561195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="H41" t="n">
-        <v>55.16148310561195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="I41" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="J41" t="n">
-        <v>489.9993811856698</v>
+        <v>508.557199136501</v>
       </c>
       <c r="K41" t="n">
-        <v>489.9993811856698</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="L41" t="n">
-        <v>1167.464966128475</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="M41" t="n">
-        <v>1844.930551071281</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="N41" t="n">
-        <v>2522.396136014086</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="O41" t="n">
-        <v>2568.080621884541</v>
+        <v>2121.162858634106</v>
       </c>
       <c r="P41" t="n">
-        <v>2568.080621884541</v>
+        <v>2949.472733467503</v>
       </c>
       <c r="Q41" t="n">
-        <v>2568.080621884541</v>
+        <v>3495.971519426097</v>
       </c>
       <c r="R41" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="S41" t="n">
-        <v>2737.234686637598</v>
+        <v>3581.473710362991</v>
       </c>
       <c r="T41" t="n">
-        <v>2737.234686637598</v>
+        <v>3361.40648323603</v>
       </c>
       <c r="U41" t="n">
-        <v>2737.234686637598</v>
+        <v>3102.184180553047</v>
       </c>
       <c r="V41" t="n">
-        <v>2737.234686637598</v>
+        <v>2739.567230486873</v>
       </c>
       <c r="W41" t="n">
-        <v>2737.234686637598</v>
+        <v>2334.711775897907</v>
       </c>
       <c r="X41" t="n">
-        <v>2318.092223216909</v>
+        <v>1915.569312477217</v>
       </c>
       <c r="Y41" t="n">
-        <v>2217.155485665149</v>
+        <v>1507.283188776871</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>560.9164387240447</v>
+        <v>2508.057567691638</v>
       </c>
       <c r="C42" t="n">
-        <v>454.459977560687</v>
+        <v>2401.601106528281</v>
       </c>
       <c r="D42" t="n">
-        <v>359.3696887072403</v>
+        <v>2306.510817674834</v>
       </c>
       <c r="E42" t="n">
-        <v>265.249274034194</v>
+        <v>2212.390403001787</v>
       </c>
       <c r="F42" t="n">
-        <v>181.8654356503556</v>
+        <v>2129.006564617949</v>
       </c>
       <c r="G42" t="n">
-        <v>96.48034591653948</v>
+        <v>2043.621474884133</v>
       </c>
       <c r="H42" t="n">
-        <v>54.74469373275195</v>
+        <v>2001.885822700345</v>
       </c>
       <c r="I42" t="n">
-        <v>80.80836689320955</v>
+        <v>2027.949495860803</v>
       </c>
       <c r="J42" t="n">
-        <v>405.3666918594219</v>
+        <v>2352.507820827015</v>
       </c>
       <c r="K42" t="n">
-        <v>1060.072738485145</v>
+        <v>3007.213867452739</v>
       </c>
       <c r="L42" t="n">
-        <v>1060.072738485145</v>
+        <v>3007.213867452739</v>
       </c>
       <c r="M42" t="n">
-        <v>1060.072738485145</v>
+        <v>3007.213867452739</v>
       </c>
       <c r="N42" t="n">
-        <v>1060.072738485145</v>
+        <v>3007.213867452739</v>
       </c>
       <c r="O42" t="n">
-        <v>1060.072738485145</v>
+        <v>3007.213867452739</v>
       </c>
       <c r="P42" t="n">
-        <v>1060.072738485145</v>
+        <v>3007.213867452739</v>
       </c>
       <c r="Q42" t="n">
-        <v>1600.811677117221</v>
+        <v>3547.952806084814</v>
       </c>
       <c r="R42" t="n">
-        <v>1717.984455211561</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="S42" t="n">
-        <v>1654.529017659944</v>
+        <v>3601.670146627537</v>
       </c>
       <c r="T42" t="n">
-        <v>1524.350373990545</v>
+        <v>3471.491502958139</v>
       </c>
       <c r="U42" t="n">
-        <v>1348.013826990514</v>
+        <v>3295.154955958107</v>
       </c>
       <c r="V42" t="n">
-        <v>1148.896309052513</v>
+        <v>3096.037438020106</v>
       </c>
       <c r="W42" t="n">
-        <v>963.5735547857071</v>
+        <v>2910.714683753301</v>
       </c>
       <c r="X42" t="n">
-        <v>808.7061190245871</v>
+        <v>2755.847247992181</v>
       </c>
       <c r="Y42" t="n">
-        <v>682.2203398038079</v>
+        <v>2629.361468771402</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>742.8207098557364</v>
+        <v>923.7985487605142</v>
       </c>
       <c r="C43" t="n">
-        <v>570.2589983389613</v>
+        <v>751.2368372437392</v>
       </c>
       <c r="D43" t="n">
-        <v>404.381005540484</v>
+        <v>585.3588444452619</v>
       </c>
       <c r="E43" t="n">
-        <v>234.6230017912213</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F43" t="n">
-        <v>57.91594775297747</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G43" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="H43" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="I43" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="J43" t="n">
-        <v>141.3243788974418</v>
+        <v>159.8821968482729</v>
       </c>
       <c r="K43" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L43" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M43" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N43" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O43" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P43" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q43" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R43" t="n">
-        <v>2649.986482340924</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S43" t="n">
-        <v>2490.74511363892</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T43" t="n">
-        <v>2244.865667217376</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U43" t="n">
-        <v>1966.432666470481</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V43" t="n">
-        <v>1679.477158340911</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W43" t="n">
-        <v>1407.450753927203</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X43" t="n">
-        <v>1162.058999260615</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y43" t="n">
-        <v>934.6393285747235</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1790.439125807381</v>
+        <v>2210.394775134949</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.296652990805</v>
+        <v>1772.252302318372</v>
       </c>
       <c r="D44" t="n">
-        <v>916.3868681652491</v>
+        <v>1336.342517492816</v>
       </c>
       <c r="E44" t="n">
-        <v>482.6121233235442</v>
+        <v>902.5677726511115</v>
       </c>
       <c r="F44" t="n">
-        <v>54.74469373275195</v>
+        <v>474.7003430603192</v>
       </c>
       <c r="G44" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="H44" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="I44" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="J44" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="K44" t="n">
-        <v>666.6506660403358</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="L44" t="n">
-        <v>666.6506660403358</v>
+        <v>980.4210937679236</v>
       </c>
       <c r="M44" t="n">
-        <v>1344.116250983141</v>
+        <v>980.4210937679236</v>
       </c>
       <c r="N44" t="n">
-        <v>1344.116250983141</v>
+        <v>1887.539675852264</v>
       </c>
       <c r="O44" t="n">
-        <v>1344.116250983141</v>
+        <v>2290.316923387163</v>
       </c>
       <c r="P44" t="n">
-        <v>2021.581835925947</v>
+        <v>3118.62679822056</v>
       </c>
       <c r="Q44" t="n">
-        <v>2568.080621884541</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="R44" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="S44" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="T44" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="U44" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="V44" t="n">
-        <v>2617.867712928417</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="W44" t="n">
-        <v>2617.867712928417</v>
+        <v>3260.270129590187</v>
       </c>
       <c r="X44" t="n">
-        <v>2198.725249507728</v>
+        <v>3044.980469320203</v>
       </c>
       <c r="Y44" t="n">
-        <v>1790.439125807381</v>
+        <v>2636.694345619856</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C45" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D45" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E45" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F45" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G45" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H45" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="I45" t="n">
-        <v>80.80836689320955</v>
+        <v>99.36618484404067</v>
       </c>
       <c r="J45" t="n">
-        <v>405.3666918594219</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K45" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="L45" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="M45" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="N45" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="O45" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P45" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q45" t="n">
-        <v>1600.811677117221</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R45" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S45" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T45" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U45" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V45" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W45" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X45" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y45" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>830.0689141524103</v>
+        <v>923.7985487605142</v>
       </c>
       <c r="C46" t="n">
-        <v>798.5094022949546</v>
+        <v>751.2368372437392</v>
       </c>
       <c r="D46" t="n">
-        <v>632.6314094964773</v>
+        <v>585.3588444452619</v>
       </c>
       <c r="E46" t="n">
-        <v>462.8734057472146</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F46" t="n">
-        <v>286.1663517089709</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G46" t="n">
-        <v>120.5750767347985</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="H46" t="n">
-        <v>120.5750767347985</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="I46" t="n">
-        <v>120.5750767347985</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="J46" t="n">
-        <v>207.1547618994884</v>
+        <v>159.8821968482729</v>
       </c>
       <c r="K46" t="n">
-        <v>481.9132164706239</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L46" t="n">
-        <v>900.123098238585</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M46" t="n">
-        <v>1359.606965419498</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N46" t="n">
-        <v>1801.865768577142</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O46" t="n">
-        <v>2221.535017802924</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P46" t="n">
-        <v>2569.041911773266</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q46" t="n">
-        <v>2737.234686637598</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R46" t="n">
-        <v>2737.234686637598</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S46" t="n">
-        <v>2577.993317935594</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T46" t="n">
-        <v>2332.11387151405</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U46" t="n">
-        <v>2053.680870767155</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V46" t="n">
-        <v>1766.725362637585</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W46" t="n">
-        <v>1494.698958223877</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X46" t="n">
-        <v>1249.307203557289</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y46" t="n">
-        <v>1021.887532871398</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
   </sheetData>
@@ -7979,10 +7981,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,16 +7993,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>178.4356412673392</v>
+        <v>40.69782849307467</v>
       </c>
       <c r="P2" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,10 +8054,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8064,7 +8066,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>449.5305433373007</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>684.3086716593995</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L5" t="n">
-        <v>684.3086716593995</v>
+        <v>40.69782849307489</v>
       </c>
       <c r="M5" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>485.7971447710838</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>311.4228197911089</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8450,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>480.349027940466</v>
       </c>
       <c r="M8" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>178.4356412673392</v>
+        <v>916.2813960447884</v>
       </c>
       <c r="P8" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,22 +8528,22 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>523.2115154696905</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>763.7587670651194</v>
       </c>
       <c r="N9" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447885</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8553,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8690,7 +8692,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8702,16 +8704,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>684.3086716593994</v>
+        <v>916.2813960447884</v>
       </c>
       <c r="P11" t="n">
-        <v>349.2983329370936</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>40.69782849307421</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>684.3086716593995</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>311.4228197911089</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>116.08660761143</v>
       </c>
       <c r="K14" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>916.2813960447884</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8939,16 +8941,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>684.3086716593994</v>
+        <v>916.2813960447884</v>
       </c>
       <c r="P14" t="n">
-        <v>178.4356412673392</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>311.4228197911091</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>684.3086716593995</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,7 +9245,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9410,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9872,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>127.53932913075</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10349,7 +10351,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>756.3484258820585</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10358,10 +10360,10 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>60.59188538505123</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458549</v>
@@ -10422,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,7 +10439,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>433.7499898166689</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,19 +10585,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>288.7351832965059</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10829,10 +10831,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11060,25 +11062,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>712.6132095083485</v>
       </c>
       <c r="L41" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>46.1459453236921</v>
+        <v>916.2813960447884</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
         <v>170.8626916697543</v>
@@ -11297,28 +11299,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>618.0868407147311</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>916.2813960447885</v>
       </c>
       <c r="M44" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>916.2813960447884</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>406.8457045807058</v>
       </c>
       <c r="P44" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22553,13 +22555,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>268.4137640573847</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -22595,13 +22597,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>137.0564473900088</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -22723,7 +22725,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22753,16 +22755,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>34.67467827192522</v>
+        <v>81.78272691405257</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22781,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -22796,10 +22798,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>54.70470152113353</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22841,7 +22843,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>174.1091161128887</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -22942,7 +22944,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -22951,16 +22953,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>160.7958207444073</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>20.09260206285748</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23021,16 +23023,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>163.4212026217411</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -23078,7 +23080,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>210.6351987283864</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23191,13 +23193,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>139.592177662726</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23227,13 +23229,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>208.2197249473423</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -23258,10 +23260,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>201.814275119198</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -23318,7 +23320,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>236.7422888483049</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23422,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23466,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>40.15930123557243</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23495,25 +23497,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>60.99931406717957</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>202.2268965983294</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23552,7 +23554,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23665,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>160.7958207444078</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>208.2197249473423</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23940,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24177,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24414,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
-        <v>69.71657238081409</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24613,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>3.146865729424633</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>120.4463752142721</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24891,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>37.383630545736</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25087,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25324,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>3.146865729424633</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25372,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>143.6516710866793</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25555,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>84.63380825304888</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>120.4463752142708</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25628,25 +25630,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>252.8053102088447</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>304.2758922871012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25798,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>160.7958207444073</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25877,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>286.2388530112159</v>
@@ -25922,13 +25924,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>240.8174765934226</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>201.8142751191984</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26023,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>139.5921776627261</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26071,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>420813.4838782506</v>
+        <v>508632.236024935</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>420813.4838782506</v>
+        <v>508632.2360249351</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>420813.4838782506</v>
+        <v>508632.236024935</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>420813.4838782505</v>
+        <v>508632.236024935</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>420813.4838782506</v>
+        <v>508632.2360249351</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>645667.9741445327</v>
+        <v>645667.9741445328</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>420813.4838782506</v>
+        <v>508632.2360249351</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>420813.4838782505</v>
+        <v>508632.236024935</v>
       </c>
     </row>
   </sheetData>
@@ -26311,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>188858.4092779991</v>
+        <v>228270.9054802363</v>
       </c>
       <c r="C2" t="n">
-        <v>188858.4092779992</v>
+        <v>228270.9054802363</v>
       </c>
       <c r="D2" t="n">
-        <v>188858.4092779992</v>
+        <v>228270.9054802363</v>
       </c>
       <c r="E2" t="n">
-        <v>188858.4092779991</v>
+        <v>228270.9054802362</v>
       </c>
       <c r="F2" t="n">
-        <v>188858.4092779992</v>
+        <v>228270.9054802363</v>
       </c>
       <c r="G2" t="n">
         <v>289771.6712755439</v>
       </c>
       <c r="H2" t="n">
-        <v>289771.6712755438</v>
+        <v>289771.6712755437</v>
       </c>
       <c r="I2" t="n">
-        <v>289771.6712755438</v>
+        <v>289771.6712755437</v>
       </c>
       <c r="J2" t="n">
         <v>289771.6712755437</v>
       </c>
       <c r="K2" t="n">
+        <v>289771.6712755438</v>
+      </c>
+      <c r="L2" t="n">
         <v>289771.6712755437</v>
-      </c>
-      <c r="L2" t="n">
-        <v>289771.6712755438</v>
       </c>
       <c r="M2" t="n">
         <v>289771.6712755437</v>
@@ -26350,10 +26352,10 @@
         <v>289771.6712755437</v>
       </c>
       <c r="O2" t="n">
-        <v>188858.4092779991</v>
+        <v>228270.9054802363</v>
       </c>
       <c r="P2" t="n">
-        <v>188858.4092779991</v>
+        <v>228270.9054802362</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>229327.5749725129</v>
+        <v>307066.9702867177</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>162793.2877984415</v>
+        <v>99213.04363527209</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>179045.2580876519</v>
+        <v>239739.5295867427</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9284.299089827527</v>
+        <v>11221.82151213932</v>
       </c>
       <c r="C4" t="n">
-        <v>9284.299089827527</v>
+        <v>11221.82151213932</v>
       </c>
       <c r="D4" t="n">
-        <v>9284.299089827527</v>
+        <v>11221.82151213932</v>
       </c>
       <c r="E4" t="n">
-        <v>9284.299089827527</v>
+        <v>11221.82151213932</v>
       </c>
       <c r="F4" t="n">
-        <v>9284.299089827527</v>
+        <v>11221.82151213932</v>
       </c>
       <c r="G4" t="n">
-        <v>14245.20557049264</v>
+        <v>14245.20557049265</v>
       </c>
       <c r="H4" t="n">
         <v>14245.20557049264</v>
@@ -26448,16 +26450,16 @@
         <v>14245.20557049264</v>
       </c>
       <c r="M4" t="n">
-        <v>14245.20557049264</v>
+        <v>14245.20557049265</v>
       </c>
       <c r="N4" t="n">
         <v>14245.20557049264</v>
       </c>
       <c r="O4" t="n">
-        <v>9284.299089827529</v>
+        <v>11221.82151213932</v>
       </c>
       <c r="P4" t="n">
-        <v>9284.299089827527</v>
+        <v>11221.82151213932</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75233.56723689148</v>
+        <v>89337.50887952314</v>
       </c>
       <c r="C5" t="n">
-        <v>75233.56723689148</v>
+        <v>89337.50887952314</v>
       </c>
       <c r="D5" t="n">
-        <v>75233.56723689148</v>
+        <v>89337.50887952314</v>
       </c>
       <c r="E5" t="n">
-        <v>41605.96723689148</v>
+        <v>55709.90887952314</v>
       </c>
       <c r="F5" t="n">
-        <v>41605.96723689148</v>
+        <v>55709.90887952314</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>41605.96723689148</v>
+        <v>55709.90887952314</v>
       </c>
       <c r="P5" t="n">
-        <v>41605.96723689148</v>
+        <v>55709.90887952314</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-124987.0320212328</v>
+        <v>-179355.3951981439</v>
       </c>
       <c r="C6" t="n">
-        <v>104340.5429512802</v>
+        <v>127711.5750885739</v>
       </c>
       <c r="D6" t="n">
-        <v>104340.5429512802</v>
+        <v>127711.5750885738</v>
       </c>
       <c r="E6" t="n">
-        <v>137968.1429512801</v>
+        <v>161339.1750885738</v>
       </c>
       <c r="F6" t="n">
-        <v>137968.1429512802</v>
+        <v>161339.1750885738</v>
       </c>
       <c r="G6" t="n">
-        <v>35014.93930081725</v>
+        <v>98595.18346398661</v>
       </c>
       <c r="H6" t="n">
         <v>197808.2270992586</v>
@@ -26543,7 +26545,7 @@
         <v>197808.2270992586</v>
       </c>
       <c r="J6" t="n">
-        <v>18762.96901160668</v>
+        <v>-41931.30248748406</v>
       </c>
       <c r="K6" t="n">
         <v>197808.2270992586</v>
@@ -26558,10 +26560,10 @@
         <v>197808.2270992586</v>
       </c>
       <c r="O6" t="n">
-        <v>137968.1429512801</v>
+        <v>161339.1750885739</v>
       </c>
       <c r="P6" t="n">
-        <v>137968.1429512801</v>
+        <v>161339.1750885738</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="C4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="D4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447885</v>
       </c>
       <c r="E4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447885</v>
       </c>
       <c r="F4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447885</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447885</v>
       </c>
       <c r="P4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447885</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>593.9518317253459</v>
+        <v>361.9791073399568</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>593.9518317253459</v>
+        <v>361.9791073399568</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34699,10 +34701,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,16 +34713,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>178.4356412673392</v>
+        <v>40.69782849307467</v>
       </c>
       <c r="P2" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,10 +34774,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34784,7 +34786,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>449.5305433373007</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34793,13 +34795,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>684.3086716593995</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34869,7 +34871,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L5" t="n">
-        <v>684.3086716593995</v>
+        <v>40.69782849307489</v>
       </c>
       <c r="M5" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>485.7971447710838</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>311.4228197911089</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35106,7 +35108,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>480.349027940466</v>
       </c>
       <c r="M8" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>178.4356412673392</v>
+        <v>916.2813960447884</v>
       </c>
       <c r="P8" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,22 +35248,22 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>523.2115154696905</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>763.7587670651194</v>
       </c>
       <c r="N9" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447885</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35273,7 +35275,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35343,7 +35345,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35410,7 +35412,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -35422,16 +35424,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>684.3086716593994</v>
+        <v>916.2813960447884</v>
       </c>
       <c r="P11" t="n">
-        <v>349.2983329370936</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>40.69782849307421</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>684.3086716593995</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>311.4228197911089</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>116.08660761143</v>
       </c>
       <c r="K14" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>916.2813960447884</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35659,16 +35661,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>684.3086716593994</v>
+        <v>916.2813960447884</v>
       </c>
       <c r="P14" t="n">
-        <v>178.4356412673392</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>311.4228197911091</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>684.3086716593995</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,13 +35743,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35963,7 +35965,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,7 +35980,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36130,7 +36132,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>127.53932913075</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37069,7 +37071,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>756.3484258820585</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -37078,10 +37080,10 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>60.59188538505123</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458546</v>
@@ -37142,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37157,7 +37159,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37166,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>433.7499898166689</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>288.7351832965059</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37549,10 +37551,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37698,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37713,13 +37715,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,25 +37782,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>712.6132095083485</v>
       </c>
       <c r="L41" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>46.1459453236921</v>
+        <v>916.2813960447884</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
         <v>170.8626916697544</v>
@@ -37853,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632068</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K42" t="n">
         <v>661.3192390158824</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38017,28 +38019,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>618.0868407147311</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>916.2813960447885</v>
       </c>
       <c r="M44" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>916.2813960447884</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>406.8457045807058</v>
       </c>
       <c r="P44" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38181,7 +38183,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_22.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>916742.1651021225</v>
+        <v>915121.0066108394</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16877859.47655641</v>
+        <v>16877859.47655642</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2305207.638772118</v>
+        <v>2305207.638772116</v>
       </c>
     </row>
     <row r="9">
@@ -661,10 +661,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>120.6285272791452</v>
       </c>
       <c r="E2" t="n">
         <v>429.4369973932878</v>
@@ -676,7 +676,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>119.5736322661444</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -834,10 +834,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>75.86622810093073</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -876,7 +876,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -898,10 +898,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>191.1957317634612</v>
       </c>
       <c r="E5" t="n">
         <v>429.4369973932878</v>
@@ -910,13 +910,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>342.6791515418352</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1056,7 +1056,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -1065,16 +1065,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>137.5563529521258</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1135,7 +1135,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>270.3398454666698</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
@@ -1144,16 +1144,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>79.00090789319225</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1305,7 +1305,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>24.34318456170461</v>
+        <v>3.139541480022785</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1381,16 +1381,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>195.5695779437707</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>245.8669728164609</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1533,7 +1533,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>79.58540461744387</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1542,13 +1542,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1621,7 +1621,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>195.1569564646393</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>198.580003444749</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1779,13 +1779,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>3.139541480022813</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1864,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2967,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3201,7 +3201,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>24.34318456170439</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
         <v>157.6489550149833</v>
@@ -3328,7 +3328,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.8069000430781</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
@@ -3438,7 +3438,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>160.788496495006</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3678,7 +3678,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
-        <v>122.9742767430585</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3742,19 +3742,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>176.631687184443</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>195.5695779437725</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -3991,13 +3991,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>195.1569564646411</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>213.136763667284</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2210.394775134949</v>
+        <v>1747.319669301262</v>
       </c>
       <c r="C2" t="n">
-        <v>1772.252302318372</v>
+        <v>1747.319669301262</v>
       </c>
       <c r="D2" t="n">
-        <v>1336.342517492816</v>
+        <v>1625.4726720496</v>
       </c>
       <c r="E2" t="n">
-        <v>902.5677726511115</v>
+        <v>1191.697927207895</v>
       </c>
       <c r="F2" t="n">
-        <v>474.7003430603192</v>
+        <v>763.830497617103</v>
       </c>
       <c r="G2" t="n">
-        <v>73.30251168358309</v>
+        <v>362.4326662403669</v>
       </c>
       <c r="H2" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I2" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J2" t="n">
         <v>508.557199136501</v>
@@ -4336,46 +4336,46 @@
         <v>1342.907491094679</v>
       </c>
       <c r="L2" t="n">
-        <v>2250.02607317902</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="M2" t="n">
-        <v>2250.02607317902</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="N2" t="n">
-        <v>2250.02607317902</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="O2" t="n">
-        <v>2290.316923387164</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P2" t="n">
-        <v>3118.62679822056</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q2" t="n">
-        <v>3665.125584179154</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R2" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S2" t="n">
-        <v>3581.473710362991</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T2" t="n">
-        <v>3581.473710362991</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="U2" t="n">
-        <v>3460.692263629512</v>
+        <v>3405.903281496172</v>
       </c>
       <c r="V2" t="n">
-        <v>3460.692263629512</v>
+        <v>3405.903281496172</v>
       </c>
       <c r="W2" t="n">
-        <v>3055.836809040546</v>
+        <v>3001.047826907205</v>
       </c>
       <c r="X2" t="n">
-        <v>2636.694345619856</v>
+        <v>2581.905363486516</v>
       </c>
       <c r="Y2" t="n">
-        <v>2636.694345619856</v>
+        <v>2173.61923978617</v>
       </c>
     </row>
     <row r="3">
@@ -4403,10 +4403,10 @@
         <v>115.0381638673706</v>
       </c>
       <c r="H3" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I3" t="n">
-        <v>99.36618484404069</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J3" t="n">
         <v>423.924509810253</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1152.360672295464</v>
+        <v>923.7985487605143</v>
       </c>
       <c r="C4" t="n">
-        <v>979.7989607786893</v>
+        <v>751.2368372437393</v>
       </c>
       <c r="D4" t="n">
-        <v>813.920967980212</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E4" t="n">
-        <v>644.1629642309493</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F4" t="n">
-        <v>467.4559101927056</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G4" t="n">
-        <v>301.8646352185332</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H4" t="n">
-        <v>161.9624609089078</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I4" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J4" t="n">
         <v>159.882196848273</v>
@@ -4515,25 +4515,25 @@
         <v>2689.962121586383</v>
       </c>
       <c r="S4" t="n">
-        <v>2613.329567949079</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T4" t="n">
-        <v>2367.450121527534</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U4" t="n">
-        <v>2089.017120780639</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V4" t="n">
-        <v>2089.017120780639</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W4" t="n">
-        <v>1816.990716366931</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X4" t="n">
-        <v>1571.598961700343</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y4" t="n">
-        <v>1344.179291014452</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2006.541971984244</v>
+        <v>2256.742146647451</v>
       </c>
       <c r="C5" t="n">
-        <v>2006.541971984244</v>
+        <v>1818.599673830874</v>
       </c>
       <c r="D5" t="n">
-        <v>1570.632187158689</v>
+        <v>1625.4726720496</v>
       </c>
       <c r="E5" t="n">
-        <v>1136.857442316984</v>
+        <v>1191.697927207895</v>
       </c>
       <c r="F5" t="n">
-        <v>708.9900127261917</v>
+        <v>763.830497617103</v>
       </c>
       <c r="G5" t="n">
-        <v>362.8494556132268</v>
+        <v>362.4326662403669</v>
       </c>
       <c r="H5" t="n">
-        <v>73.71930105644309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I5" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J5" t="n">
         <v>508.557199136501</v>
@@ -4573,46 +4573,46 @@
         <v>1342.907491094679</v>
       </c>
       <c r="L5" t="n">
-        <v>1383.198341302823</v>
+        <v>2250.02607317902</v>
       </c>
       <c r="M5" t="n">
-        <v>1383.198341302823</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="N5" t="n">
-        <v>1383.198341302823</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="O5" t="n">
-        <v>2290.316923387164</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="P5" t="n">
-        <v>3118.62679822056</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q5" t="n">
-        <v>3665.125584179154</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R5" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S5" t="n">
-        <v>3665.125584179154</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="T5" t="n">
-        <v>3665.125584179154</v>
+        <v>3361.406483236031</v>
       </c>
       <c r="U5" t="n">
-        <v>3665.125584179154</v>
+        <v>3102.184180553048</v>
       </c>
       <c r="V5" t="n">
-        <v>3665.125584179154</v>
+        <v>3102.184180553048</v>
       </c>
       <c r="W5" t="n">
-        <v>3260.270129590188</v>
+        <v>3102.184180553048</v>
       </c>
       <c r="X5" t="n">
-        <v>2841.127666169499</v>
+        <v>2683.041717132358</v>
       </c>
       <c r="Y5" t="n">
-        <v>2432.841542469152</v>
+        <v>2683.041717132358</v>
       </c>
     </row>
     <row r="6">
@@ -4640,10 +4640,10 @@
         <v>115.0381638673706</v>
       </c>
       <c r="H6" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I6" t="n">
-        <v>99.36618484404069</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J6" t="n">
         <v>423.924509810253</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>803.0919067404456</v>
+        <v>923.7985487605143</v>
       </c>
       <c r="C7" t="n">
-        <v>803.0919067404456</v>
+        <v>751.2368372437393</v>
       </c>
       <c r="D7" t="n">
-        <v>637.2139139419683</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E7" t="n">
-        <v>467.4559101927056</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F7" t="n">
-        <v>467.4559101927056</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G7" t="n">
-        <v>301.8646352185332</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H7" t="n">
-        <v>161.9624609089078</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I7" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J7" t="n">
         <v>159.882196848273</v>
@@ -4752,25 +4752,25 @@
         <v>2689.962121586383</v>
       </c>
       <c r="S7" t="n">
-        <v>2551.016310523629</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T7" t="n">
-        <v>2305.136864102084</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U7" t="n">
-        <v>2026.70386335519</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V7" t="n">
-        <v>1739.74835522562</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W7" t="n">
-        <v>1467.721950811912</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X7" t="n">
-        <v>1222.330196145324</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y7" t="n">
-        <v>994.9105254594326</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1643.92502191807</v>
+        <v>1862.743031778827</v>
       </c>
       <c r="C8" t="n">
-        <v>1370.854470941636</v>
+        <v>1424.60055896225</v>
       </c>
       <c r="D8" t="n">
-        <v>934.9446861160802</v>
+        <v>988.6907741366945</v>
       </c>
       <c r="E8" t="n">
-        <v>501.1699412743753</v>
+        <v>554.9160292949896</v>
       </c>
       <c r="F8" t="n">
-        <v>73.30251168358308</v>
+        <v>475.1171324331792</v>
       </c>
       <c r="G8" t="n">
-        <v>73.30251168358308</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="H8" t="n">
-        <v>73.30251168358308</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="I8" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J8" t="n">
-        <v>73.30251168358308</v>
+        <v>379.6939845915884</v>
       </c>
       <c r="K8" t="n">
-        <v>907.652803641761</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="L8" t="n">
-        <v>1383.198341302822</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="M8" t="n">
-        <v>1383.198341302822</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="N8" t="n">
-        <v>1383.198341302822</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="O8" t="n">
-        <v>2290.316923387163</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P8" t="n">
-        <v>3118.62679822056</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q8" t="n">
-        <v>3665.125584179154</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R8" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S8" t="n">
-        <v>3665.125584179154</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="T8" t="n">
-        <v>3665.125584179154</v>
+        <v>3361.406483236031</v>
       </c>
       <c r="U8" t="n">
-        <v>3665.125584179154</v>
+        <v>3102.184180553048</v>
       </c>
       <c r="V8" t="n">
-        <v>3302.50863411298</v>
+        <v>3102.184180553048</v>
       </c>
       <c r="W8" t="n">
-        <v>2897.653179524013</v>
+        <v>2697.328725964081</v>
       </c>
       <c r="X8" t="n">
-        <v>2478.510716103324</v>
+        <v>2697.328725964081</v>
       </c>
       <c r="Y8" t="n">
-        <v>2070.224592402978</v>
+        <v>2289.042602263734</v>
       </c>
     </row>
     <row r="9">
@@ -4877,34 +4877,34 @@
         <v>115.0381638673706</v>
       </c>
       <c r="H9" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I9" t="n">
-        <v>73.30251168358308</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J9" t="n">
-        <v>73.30251168358308</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K9" t="n">
-        <v>73.30251168358308</v>
+        <v>423.924509810253</v>
       </c>
       <c r="L9" t="n">
-        <v>73.30251168358308</v>
+        <v>423.924509810253</v>
       </c>
       <c r="M9" t="n">
-        <v>829.4236910780512</v>
+        <v>423.924509810253</v>
       </c>
       <c r="N9" t="n">
-        <v>1736.542273162392</v>
+        <v>423.924509810253</v>
       </c>
       <c r="O9" t="n">
-        <v>1736.542273162392</v>
+        <v>423.924509810253</v>
       </c>
       <c r="P9" t="n">
-        <v>1736.542273162392</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q9" t="n">
-        <v>1736.542273162392</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R9" t="n">
         <v>1736.542273162392</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>782.7963491011951</v>
+        <v>761.378527806567</v>
       </c>
       <c r="C10" t="n">
-        <v>610.2346375844201</v>
+        <v>588.816816289792</v>
       </c>
       <c r="D10" t="n">
-        <v>444.3566447859428</v>
+        <v>422.9388234913147</v>
       </c>
       <c r="E10" t="n">
-        <v>274.59864103668</v>
+        <v>253.1808197420519</v>
       </c>
       <c r="F10" t="n">
-        <v>97.89158699843622</v>
+        <v>76.47376570380814</v>
       </c>
       <c r="G10" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H10" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I10" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J10" t="n">
-        <v>159.8821968482729</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K10" t="n">
         <v>434.6406514194085</v>
@@ -4986,28 +4986,28 @@
         <v>2689.962121586383</v>
       </c>
       <c r="R10" t="n">
-        <v>2689.962121586383</v>
+        <v>2668.544300291755</v>
       </c>
       <c r="S10" t="n">
-        <v>2530.720752884379</v>
+        <v>2509.302931589751</v>
       </c>
       <c r="T10" t="n">
-        <v>2284.841306462834</v>
+        <v>2263.423485168206</v>
       </c>
       <c r="U10" t="n">
-        <v>2006.40830571594</v>
+        <v>1984.990484421312</v>
       </c>
       <c r="V10" t="n">
-        <v>1719.45279758637</v>
+        <v>1698.034976291742</v>
       </c>
       <c r="W10" t="n">
-        <v>1447.426393172662</v>
+        <v>1426.008571878034</v>
       </c>
       <c r="X10" t="n">
-        <v>1202.034638506074</v>
+        <v>1180.616817211446</v>
       </c>
       <c r="Y10" t="n">
-        <v>974.6149678201823</v>
+        <v>953.1971465255542</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2006.541971984243</v>
+        <v>2072.0742894738</v>
       </c>
       <c r="C11" t="n">
-        <v>1568.399499167667</v>
+        <v>1633.931816657223</v>
       </c>
       <c r="D11" t="n">
-        <v>1132.489714342111</v>
+        <v>1198.022031831668</v>
       </c>
       <c r="E11" t="n">
-        <v>698.7149695004064</v>
+        <v>764.247286989963</v>
       </c>
       <c r="F11" t="n">
-        <v>270.8475399096141</v>
+        <v>764.247286989963</v>
       </c>
       <c r="G11" t="n">
-        <v>73.30251168358308</v>
+        <v>362.8494556132268</v>
       </c>
       <c r="H11" t="n">
-        <v>73.30251168358308</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="I11" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J11" t="n">
-        <v>508.557199136501</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K11" t="n">
-        <v>1342.907491094679</v>
+        <v>306.9256944654255</v>
       </c>
       <c r="L11" t="n">
-        <v>1342.907491094679</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="M11" t="n">
-        <v>1342.907491094679</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="N11" t="n">
-        <v>1342.907491094679</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="O11" t="n">
-        <v>2250.026073179019</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P11" t="n">
-        <v>3078.335948012416</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q11" t="n">
-        <v>3624.83473397101</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R11" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S11" t="n">
-        <v>3665.125584179154</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="T11" t="n">
-        <v>3665.125584179154</v>
+        <v>3361.406483236031</v>
       </c>
       <c r="U11" t="n">
-        <v>3665.125584179154</v>
+        <v>3102.184180553048</v>
       </c>
       <c r="V11" t="n">
-        <v>3665.125584179154</v>
+        <v>2739.567230486874</v>
       </c>
       <c r="W11" t="n">
-        <v>3260.270129590187</v>
+        <v>2491.216752894489</v>
       </c>
       <c r="X11" t="n">
-        <v>2841.127666169498</v>
+        <v>2072.0742894738</v>
       </c>
       <c r="Y11" t="n">
-        <v>2432.841542469151</v>
+        <v>2072.0742894738</v>
       </c>
     </row>
     <row r="12">
@@ -5114,28 +5114,28 @@
         <v>115.0381638673706</v>
       </c>
       <c r="H12" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I12" t="n">
-        <v>99.36618484404067</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J12" t="n">
         <v>423.924509810253</v>
       </c>
       <c r="K12" t="n">
-        <v>1078.630556435977</v>
+        <v>423.924509810253</v>
       </c>
       <c r="L12" t="n">
-        <v>1078.630556435977</v>
+        <v>423.924509810253</v>
       </c>
       <c r="M12" t="n">
-        <v>1078.630556435977</v>
+        <v>423.924509810253</v>
       </c>
       <c r="N12" t="n">
-        <v>1078.630556435977</v>
+        <v>423.924509810253</v>
       </c>
       <c r="O12" t="n">
-        <v>1078.630556435977</v>
+        <v>423.924509810253</v>
       </c>
       <c r="P12" t="n">
         <v>1078.630556435977</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>923.7985487605142</v>
+        <v>761.378527806567</v>
       </c>
       <c r="C13" t="n">
-        <v>751.2368372437392</v>
+        <v>588.816816289792</v>
       </c>
       <c r="D13" t="n">
-        <v>585.3588444452619</v>
+        <v>508.4275186964143</v>
       </c>
       <c r="E13" t="n">
-        <v>415.6008406959992</v>
+        <v>338.6695149471516</v>
       </c>
       <c r="F13" t="n">
-        <v>238.8937866577554</v>
+        <v>161.9624609089078</v>
       </c>
       <c r="G13" t="n">
-        <v>73.30251168358308</v>
+        <v>161.9624609089078</v>
       </c>
       <c r="H13" t="n">
-        <v>73.30251168358308</v>
+        <v>161.9624609089078</v>
       </c>
       <c r="I13" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J13" t="n">
-        <v>159.8821968482729</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K13" t="n">
         <v>434.6406514194085</v>
@@ -5223,28 +5223,28 @@
         <v>2689.962121586383</v>
       </c>
       <c r="R13" t="n">
-        <v>2689.962121586383</v>
+        <v>2668.544300291755</v>
       </c>
       <c r="S13" t="n">
-        <v>2671.722952543698</v>
+        <v>2509.302931589751</v>
       </c>
       <c r="T13" t="n">
-        <v>2425.843506122153</v>
+        <v>2263.423485168206</v>
       </c>
       <c r="U13" t="n">
-        <v>2147.410505375259</v>
+        <v>1984.990484421312</v>
       </c>
       <c r="V13" t="n">
-        <v>1860.454997245689</v>
+        <v>1698.034976291742</v>
       </c>
       <c r="W13" t="n">
-        <v>1588.428592831981</v>
+        <v>1426.008571878034</v>
       </c>
       <c r="X13" t="n">
-        <v>1343.036838165393</v>
+        <v>1180.616817211446</v>
       </c>
       <c r="Y13" t="n">
-        <v>1115.617167479501</v>
+        <v>953.1971465255542</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2006.541971984243</v>
+        <v>2210.811564507809</v>
       </c>
       <c r="C14" t="n">
-        <v>1568.399499167667</v>
+        <v>1772.669091691232</v>
       </c>
       <c r="D14" t="n">
-        <v>1132.489714342111</v>
+        <v>1336.759306865676</v>
       </c>
       <c r="E14" t="n">
-        <v>698.7149695004064</v>
+        <v>902.9845620239714</v>
       </c>
       <c r="F14" t="n">
-        <v>270.8475399096141</v>
+        <v>475.1171324331792</v>
       </c>
       <c r="G14" t="n">
-        <v>73.71930105644307</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="H14" t="n">
-        <v>73.71930105644307</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="I14" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J14" t="n">
-        <v>188.2282532188987</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K14" t="n">
-        <v>1022.578545177077</v>
+        <v>907.652803641761</v>
       </c>
       <c r="L14" t="n">
-        <v>1929.697127261417</v>
+        <v>1383.198341302823</v>
       </c>
       <c r="M14" t="n">
-        <v>1929.697127261417</v>
+        <v>1383.198341302823</v>
       </c>
       <c r="N14" t="n">
-        <v>1929.697127261417</v>
+        <v>1383.198341302823</v>
       </c>
       <c r="O14" t="n">
-        <v>2836.815709345758</v>
+        <v>2290.316923387164</v>
       </c>
       <c r="P14" t="n">
-        <v>3665.125584179154</v>
+        <v>3118.62679822056</v>
       </c>
       <c r="Q14" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="R14" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S14" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T14" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="U14" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="V14" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="W14" t="n">
-        <v>3260.270129590187</v>
+        <v>3464.539722113752</v>
       </c>
       <c r="X14" t="n">
-        <v>2841.127666169498</v>
+        <v>3045.397258693063</v>
       </c>
       <c r="Y14" t="n">
-        <v>2432.841542469151</v>
+        <v>2637.111134992716</v>
       </c>
     </row>
     <row r="15">
@@ -5351,28 +5351,28 @@
         <v>115.0381638673706</v>
       </c>
       <c r="H15" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I15" t="n">
-        <v>99.36618484404067</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J15" t="n">
         <v>423.924509810253</v>
       </c>
       <c r="K15" t="n">
-        <v>1078.630556435977</v>
+        <v>423.924509810253</v>
       </c>
       <c r="L15" t="n">
-        <v>1078.630556435977</v>
+        <v>423.924509810253</v>
       </c>
       <c r="M15" t="n">
-        <v>1078.630556435977</v>
+        <v>423.924509810253</v>
       </c>
       <c r="N15" t="n">
-        <v>1078.630556435977</v>
+        <v>423.924509810253</v>
       </c>
       <c r="O15" t="n">
-        <v>1078.630556435977</v>
+        <v>423.924509810253</v>
       </c>
       <c r="P15" t="n">
         <v>1078.630556435977</v>
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>761.378527806567</v>
+        <v>1152.360672295464</v>
       </c>
       <c r="C16" t="n">
-        <v>588.816816289792</v>
+        <v>979.7989607786893</v>
       </c>
       <c r="D16" t="n">
-        <v>422.9388234913147</v>
+        <v>813.920967980212</v>
       </c>
       <c r="E16" t="n">
-        <v>253.1808197420519</v>
+        <v>644.1629642309493</v>
       </c>
       <c r="F16" t="n">
-        <v>76.47376570380814</v>
+        <v>467.4559101927056</v>
       </c>
       <c r="G16" t="n">
-        <v>73.30251168358308</v>
+        <v>301.8646352185332</v>
       </c>
       <c r="H16" t="n">
-        <v>73.30251168358308</v>
+        <v>161.9624609089078</v>
       </c>
       <c r="I16" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J16" t="n">
-        <v>159.8821968482729</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K16" t="n">
         <v>434.6406514194085</v>
@@ -5460,28 +5460,28 @@
         <v>2689.962121586383</v>
       </c>
       <c r="R16" t="n">
-        <v>2668.544300291755</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S16" t="n">
-        <v>2509.302931589751</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="T16" t="n">
-        <v>2263.423485168206</v>
+        <v>2654.405629657103</v>
       </c>
       <c r="U16" t="n">
-        <v>1984.990484421312</v>
+        <v>2375.972628910209</v>
       </c>
       <c r="V16" t="n">
-        <v>1698.034976291742</v>
+        <v>2089.017120780639</v>
       </c>
       <c r="W16" t="n">
-        <v>1426.008571878034</v>
+        <v>1816.990716366931</v>
       </c>
       <c r="X16" t="n">
-        <v>1180.616817211446</v>
+        <v>1571.598961700343</v>
       </c>
       <c r="Y16" t="n">
-        <v>953.1971465255542</v>
+        <v>1344.179291014452</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5597,19 +5597,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P18" t="n">
         <v>1107.588885023173</v>
@@ -5740,13 +5740,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5758,10 +5758,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423627</v>
@@ -5834,19 +5834,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5977,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5995,10 +5995,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6071,16 +6071,16 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O24" t="n">
         <v>1107.588885023173</v>
@@ -6214,40 +6214,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>3137.402081918264</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>4117.581748488571</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>4945.891623321967</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6308,19 +6308,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>303.5569696238763</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>126.8499155856325</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
         <v>102.2608402707796</v>
@@ -6411,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6451,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6502,13 +6502,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6545,19 +6545,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6648,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2683.3639582443</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6688,13 +6688,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6703,16 +6703,16 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>1286.300469346935</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1286.300469346935</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2443.348304557486</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>3569.079287993933</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
         <v>3569.079287993933</v>
@@ -6782,19 +6782,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P33" t="n">
         <v>1107.588885023173</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>811.7546776883914</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C34" t="n">
-        <v>639.1929661716164</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D34" t="n">
-        <v>473.3149733731391</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E34" t="n">
-        <v>303.5569696238763</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F34" t="n">
-        <v>126.8499155856325</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G34" t="n">
         <v>102.2608402707796</v>
@@ -6882,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W34" t="n">
-        <v>1476.384721759858</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X34" t="n">
-        <v>1230.99296709327</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y34" t="n">
-        <v>1003.573296407379</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="35">
@@ -6925,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6946,43 +6946,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7019,19 +7019,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P36" t="n">
         <v>1107.588885023173</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>949.5782250957668</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>777.0165135789917</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>611.1385207805145</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>441.3805170312517</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>264.6734629930079</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
         <v>102.2608402707796</v>
@@ -7119,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2451.623182457406</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2173.190181710511</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1886.234673580942</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1614.208269167233</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1368.816514500646</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1141.396843814754</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7162,13 +7162,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7183,7 +7183,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N38" t="n">
         <v>2588.899621423627</v>
@@ -7213,13 +7213,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7256,19 +7256,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P39" t="n">
         <v>1107.588885023173</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3486.780615022739</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>3314.218903505964</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>3148.340910707486</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>2978.582906958224</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>2801.87585291998</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>2636.284577945808</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>5113.042013538981</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>4988.825572384377</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>4710.392571637482</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>4423.437063507913</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>4151.410659094205</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>3906.018904427618</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>3678.599233741726</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1080.983618291963</v>
+        <v>2006.541971984245</v>
       </c>
       <c r="C41" t="n">
-        <v>1080.983618291963</v>
+        <v>1568.399499167669</v>
       </c>
       <c r="D41" t="n">
-        <v>1080.983618291963</v>
+        <v>1132.489714342113</v>
       </c>
       <c r="E41" t="n">
-        <v>902.5677726511115</v>
+        <v>698.7149695004082</v>
       </c>
       <c r="F41" t="n">
-        <v>474.7003430603192</v>
+        <v>270.8475399096159</v>
       </c>
       <c r="G41" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H41" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I41" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J41" t="n">
         <v>508.557199136501</v>
       </c>
       <c r="K41" t="n">
-        <v>1214.044276549766</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="L41" t="n">
-        <v>1214.044276549766</v>
+        <v>2250.02607317902</v>
       </c>
       <c r="M41" t="n">
-        <v>1214.044276549766</v>
+        <v>2250.02607317902</v>
       </c>
       <c r="N41" t="n">
-        <v>1214.044276549766</v>
+        <v>2250.02607317902</v>
       </c>
       <c r="O41" t="n">
-        <v>2121.162858634106</v>
+        <v>2290.316923387164</v>
       </c>
       <c r="P41" t="n">
-        <v>2949.472733467503</v>
+        <v>3118.62679822056</v>
       </c>
       <c r="Q41" t="n">
-        <v>3495.971519426097</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="R41" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S41" t="n">
-        <v>3581.473710362991</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T41" t="n">
-        <v>3361.40648323603</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="U41" t="n">
-        <v>3102.184180553047</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="V41" t="n">
-        <v>2739.567230486873</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="W41" t="n">
-        <v>2334.711775897907</v>
+        <v>3260.270129590189</v>
       </c>
       <c r="X41" t="n">
-        <v>1915.569312477217</v>
+        <v>2841.1276661695</v>
       </c>
       <c r="Y41" t="n">
-        <v>1507.283188776871</v>
+        <v>2432.841542469153</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2508.057567691638</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C42" t="n">
-        <v>2401.601106528281</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D42" t="n">
-        <v>2306.510817674834</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E42" t="n">
-        <v>2212.390403001787</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F42" t="n">
-        <v>2129.006564617949</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G42" t="n">
-        <v>2043.621474884133</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H42" t="n">
-        <v>2001.885822700345</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I42" t="n">
-        <v>2027.949495860803</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J42" t="n">
-        <v>2352.507820827015</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K42" t="n">
-        <v>3007.213867452739</v>
+        <v>423.924509810253</v>
       </c>
       <c r="L42" t="n">
-        <v>3007.213867452739</v>
+        <v>423.924509810253</v>
       </c>
       <c r="M42" t="n">
-        <v>3007.213867452739</v>
+        <v>423.924509810253</v>
       </c>
       <c r="N42" t="n">
-        <v>3007.213867452739</v>
+        <v>423.924509810253</v>
       </c>
       <c r="O42" t="n">
-        <v>3007.213867452739</v>
+        <v>423.924509810253</v>
       </c>
       <c r="P42" t="n">
-        <v>3007.213867452739</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q42" t="n">
-        <v>3547.952806084814</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R42" t="n">
-        <v>3665.125584179154</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S42" t="n">
-        <v>3601.670146627537</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T42" t="n">
-        <v>3471.491502958139</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U42" t="n">
-        <v>3295.154955958107</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V42" t="n">
-        <v>3096.037438020106</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W42" t="n">
-        <v>2910.714683753301</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X42" t="n">
-        <v>2755.847247992181</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y42" t="n">
-        <v>2629.361468771402</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="43">
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>923.7985487605142</v>
+        <v>923.7985487605143</v>
       </c>
       <c r="C43" t="n">
-        <v>751.2368372437392</v>
+        <v>751.2368372437393</v>
       </c>
       <c r="D43" t="n">
-        <v>585.3588444452619</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E43" t="n">
         <v>415.6008406959992</v>
@@ -7560,16 +7560,16 @@
         <v>238.8937866577554</v>
       </c>
       <c r="G43" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H43" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I43" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J43" t="n">
-        <v>159.8821968482729</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K43" t="n">
         <v>434.6406514194085</v>
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2210.394775134949</v>
+        <v>2006.541971984245</v>
       </c>
       <c r="C44" t="n">
-        <v>1772.252302318372</v>
+        <v>1568.399499167669</v>
       </c>
       <c r="D44" t="n">
-        <v>1336.342517492816</v>
+        <v>1132.489714342113</v>
       </c>
       <c r="E44" t="n">
-        <v>902.5677726511115</v>
+        <v>698.7149695004082</v>
       </c>
       <c r="F44" t="n">
-        <v>474.7003430603192</v>
+        <v>270.8475399096159</v>
       </c>
       <c r="G44" t="n">
-        <v>73.30251168358308</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="H44" t="n">
-        <v>73.30251168358308</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="I44" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J44" t="n">
-        <v>73.30251168358308</v>
+        <v>508.557199136501</v>
       </c>
       <c r="K44" t="n">
-        <v>73.30251168358308</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="L44" t="n">
-        <v>980.4210937679236</v>
+        <v>2250.02607317902</v>
       </c>
       <c r="M44" t="n">
-        <v>980.4210937679236</v>
+        <v>2250.02607317902</v>
       </c>
       <c r="N44" t="n">
-        <v>1887.539675852264</v>
+        <v>2250.02607317902</v>
       </c>
       <c r="O44" t="n">
-        <v>2290.316923387163</v>
+        <v>2290.316923387164</v>
       </c>
       <c r="P44" t="n">
         <v>3118.62679822056</v>
       </c>
       <c r="Q44" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="R44" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S44" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T44" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="U44" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="V44" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="W44" t="n">
-        <v>3260.270129590187</v>
+        <v>3260.270129590189</v>
       </c>
       <c r="X44" t="n">
-        <v>3044.980469320203</v>
+        <v>2841.1276661695</v>
       </c>
       <c r="Y44" t="n">
-        <v>2636.694345619856</v>
+        <v>2432.841542469153</v>
       </c>
     </row>
     <row r="45">
@@ -7721,28 +7721,28 @@
         <v>115.0381638673706</v>
       </c>
       <c r="H45" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I45" t="n">
-        <v>99.36618484404067</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J45" t="n">
         <v>423.924509810253</v>
       </c>
       <c r="K45" t="n">
-        <v>1078.630556435977</v>
+        <v>423.924509810253</v>
       </c>
       <c r="L45" t="n">
-        <v>1078.630556435977</v>
+        <v>423.924509810253</v>
       </c>
       <c r="M45" t="n">
-        <v>1078.630556435977</v>
+        <v>423.924509810253</v>
       </c>
       <c r="N45" t="n">
-        <v>1078.630556435977</v>
+        <v>423.924509810253</v>
       </c>
       <c r="O45" t="n">
-        <v>1078.630556435977</v>
+        <v>423.924509810253</v>
       </c>
       <c r="P45" t="n">
         <v>1078.630556435977</v>
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>923.7985487605142</v>
+        <v>923.7985487605143</v>
       </c>
       <c r="C46" t="n">
-        <v>751.2368372437392</v>
+        <v>751.2368372437393</v>
       </c>
       <c r="D46" t="n">
-        <v>585.3588444452619</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E46" t="n">
         <v>415.6008406959992</v>
@@ -7797,16 +7797,16 @@
         <v>238.8937866577554</v>
       </c>
       <c r="G46" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H46" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I46" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J46" t="n">
-        <v>159.8821968482729</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K46" t="n">
         <v>434.6406514194085</v>
@@ -7984,7 +7984,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L2" t="n">
-        <v>916.2813960447888</v>
+        <v>786.1165328681095</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7993,7 +7993,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>40.69782849307467</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>836.6766412458549</v>
@@ -8002,7 +8002,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -8221,25 +8221,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L5" t="n">
-        <v>40.69782849307489</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>706.5117780691758</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>916.2813960447886</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>309.4863362707125</v>
       </c>
       <c r="K8" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L8" t="n">
-        <v>480.349027940466</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8467,7 +8467,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>916.2813960447884</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P8" t="n">
         <v>836.6766412458549</v>
@@ -8476,7 +8476,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8540,22 +8540,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>763.7587670651194</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>916.2813960447885</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>235.983012910952</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8704,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>916.2813960447884</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8713,7 +8713,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>40.69782849307421</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8771,7 +8771,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.08660761143</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>916.2813960447884</v>
+        <v>480.3490279404665</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8941,13 +8941,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>916.2813960447884</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9245,22 +9245,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9406,13 +9406,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9482,22 +9482,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9643,13 +9643,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9719,19 +9719,19 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9883,10 +9883,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9895,10 +9895,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>168.8387779969835</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,22 +9956,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10193,22 +10193,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10351,19 +10351,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>756.3484258820585</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458549</v>
@@ -10430,22 +10430,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10594,7 +10594,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10667,22 +10667,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10831,10 +10831,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10904,22 +10904,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11062,10 +11062,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>712.6132095083485</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>916.2813960447884</v>
+        <v>40.69782849307467</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11083,7 +11083,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11296,22 +11296,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>916.2813960447885</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>916.2813960447884</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>406.8457045807058</v>
+        <v>40.69782849307467</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -22549,10 +22549,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>310.9221596981547</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22564,7 +22564,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -22597,13 +22597,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>137.0564473900088</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -22615,7 +22615,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22722,10 +22722,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22755,7 +22755,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>81.78272691405257</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22764,7 +22764,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22786,10 +22786,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>240.3549552138387</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -22798,13 +22798,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>54.70470152113353</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -22944,7 +22944,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -22953,16 +22953,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22992,7 +22992,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>20.09260206285748</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23023,7 +23023,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>163.4212026217411</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -23032,16 +23032,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>344.5878474016921</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,22 +23071,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23193,7 +23193,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>139.592177662726</v>
+        <v>160.7958207444078</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -23226,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23269,16 +23269,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>201.814275119198</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>154.9399272266161</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>84.63380825304866</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>202.2268965983294</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
@@ -23557,7 +23557,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>202.226896598328</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>160.7958207444078</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -24651,7 +24651,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>139.5921776627262</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>3.146865729424633</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25599,10 +25599,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
-        <v>120.4463752142708</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25630,19 +25630,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>252.8053102088447</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>201.8142751191963</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>202.2268965983276</v>
       </c>
       <c r="H44" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>201.8142751191984</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>508632.236024935</v>
+        <v>508632.2360249352</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>508632.2360249351</v>
+        <v>508632.2360249352</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>508632.236024935</v>
+        <v>508632.2360249351</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>508632.236024935</v>
+        <v>508632.2360249351</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>508632.2360249351</v>
+        <v>508632.2360249352</v>
       </c>
     </row>
     <row r="7">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>508632.2360249351</v>
+        <v>508632.2360249352</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>508632.236024935</v>
+        <v>508632.2360249352</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>228270.9054802363</v>
+        <v>228270.9054802364</v>
       </c>
       <c r="C2" t="n">
         <v>228270.9054802363</v>
@@ -26322,13 +26322,13 @@
         <v>228270.9054802363</v>
       </c>
       <c r="E2" t="n">
-        <v>228270.9054802362</v>
+        <v>228270.9054802363</v>
       </c>
       <c r="F2" t="n">
         <v>228270.9054802363</v>
       </c>
       <c r="G2" t="n">
-        <v>289771.6712755439</v>
+        <v>289771.6712755438</v>
       </c>
       <c r="H2" t="n">
         <v>289771.6712755437</v>
@@ -26340,10 +26340,10 @@
         <v>289771.6712755437</v>
       </c>
       <c r="K2" t="n">
+        <v>289771.6712755437</v>
+      </c>
+      <c r="L2" t="n">
         <v>289771.6712755438</v>
-      </c>
-      <c r="L2" t="n">
-        <v>289771.6712755437</v>
       </c>
       <c r="M2" t="n">
         <v>289771.6712755437</v>
@@ -26355,7 +26355,7 @@
         <v>228270.9054802363</v>
       </c>
       <c r="P2" t="n">
-        <v>228270.9054802362</v>
+        <v>228270.9054802363</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>307066.9702867177</v>
+        <v>307066.9702867178</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>99213.04363527209</v>
+        <v>99213.04363527198</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26432,7 +26432,7 @@
         <v>11221.82151213932</v>
       </c>
       <c r="G4" t="n">
-        <v>14245.20557049265</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="H4" t="n">
         <v>14245.20557049264</v>
@@ -26450,7 +26450,7 @@
         <v>14245.20557049264</v>
       </c>
       <c r="M4" t="n">
-        <v>14245.20557049265</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="N4" t="n">
         <v>14245.20557049264</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89337.50887952314</v>
+        <v>89337.50887952316</v>
       </c>
       <c r="C5" t="n">
-        <v>89337.50887952314</v>
+        <v>89337.50887952316</v>
       </c>
       <c r="D5" t="n">
-        <v>89337.50887952314</v>
+        <v>89337.50887952316</v>
       </c>
       <c r="E5" t="n">
-        <v>55709.90887952314</v>
+        <v>55709.90887952316</v>
       </c>
       <c r="F5" t="n">
-        <v>55709.90887952314</v>
+        <v>55709.90887952316</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26508,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>55709.90887952314</v>
+        <v>55709.90887952316</v>
       </c>
       <c r="P5" t="n">
-        <v>55709.90887952314</v>
+        <v>55709.90887952316</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-179355.3951981439</v>
+        <v>-179658.1684729597</v>
       </c>
       <c r="C6" t="n">
-        <v>127711.5750885739</v>
+        <v>127408.801813758</v>
       </c>
       <c r="D6" t="n">
-        <v>127711.5750885738</v>
+        <v>127408.801813758</v>
       </c>
       <c r="E6" t="n">
-        <v>161339.1750885738</v>
+        <v>161036.401813758</v>
       </c>
       <c r="F6" t="n">
-        <v>161339.1750885738</v>
+        <v>161036.401813758</v>
       </c>
       <c r="G6" t="n">
-        <v>98595.18346398661</v>
+        <v>98571.95912460404</v>
       </c>
       <c r="H6" t="n">
-        <v>197808.2270992586</v>
+        <v>197785.0027598759</v>
       </c>
       <c r="I6" t="n">
-        <v>197808.2270992586</v>
+        <v>197785.0027598759</v>
       </c>
       <c r="J6" t="n">
-        <v>-41931.30248748406</v>
+        <v>-41954.52682686677</v>
       </c>
       <c r="K6" t="n">
-        <v>197808.2270992586</v>
+        <v>197785.0027598759</v>
       </c>
       <c r="L6" t="n">
-        <v>197808.2270992586</v>
+        <v>197785.002759876</v>
       </c>
       <c r="M6" t="n">
-        <v>197808.2270992586</v>
+        <v>197785.0027598759</v>
       </c>
       <c r="N6" t="n">
-        <v>197808.2270992586</v>
+        <v>197785.0027598759</v>
       </c>
       <c r="O6" t="n">
-        <v>161339.1750885739</v>
+        <v>161036.401813758</v>
       </c>
       <c r="P6" t="n">
-        <v>161339.1750885738</v>
+        <v>161036.401813758</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="C4" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="D4" t="n">
-        <v>916.2813960447885</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="E4" t="n">
-        <v>916.2813960447885</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="F4" t="n">
-        <v>916.2813960447885</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26828,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>916.2813960447885</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P4" t="n">
-        <v>916.2813960447885</v>
+        <v>916.2813960447888</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>361.9791073399568</v>
+        <v>361.9791073399565</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447887</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>361.9791073399568</v>
+        <v>361.9791073399565</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34704,7 +34704,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L2" t="n">
-        <v>916.2813960447888</v>
+        <v>786.1165328681095</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34713,16 +34713,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>40.69782849307467</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34795,7 +34795,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34941,25 +34941,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L5" t="n">
-        <v>40.69782849307489</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>706.5117780691758</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>916.2813960447886</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35172,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>309.4863362707125</v>
       </c>
       <c r="K8" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L8" t="n">
-        <v>480.349027940466</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35187,7 +35187,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>916.2813960447884</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P8" t="n">
         <v>836.6766412458551</v>
@@ -35196,7 +35196,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35260,22 +35260,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>763.7587670651194</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>916.2813960447885</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>235.983012910952</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35424,7 +35424,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>916.2813960447884</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458551</v>
@@ -35433,7 +35433,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>40.69782849307421</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35506,7 +35506,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35646,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.08660761143</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>916.2813960447884</v>
+        <v>480.3490279404665</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35661,13 +35661,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>916.2813960447884</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458551</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157527</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35743,7 +35743,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35965,22 +35965,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36126,13 +36126,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36202,22 +36202,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36363,13 +36363,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36439,19 +36439,19 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831377</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>168.8387779969835</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36913,22 +36913,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -37071,19 +37071,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>756.3484258820585</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458546</v>
@@ -37150,22 +37150,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37314,7 +37314,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37551,10 +37551,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37624,22 +37624,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37715,13 +37715,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,10 +37782,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>712.6132095083485</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -37794,16 +37794,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>916.2813960447884</v>
+        <v>40.69782849307467</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157523</v>
+        <v>552.0189757157527</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632068</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37876,7 +37876,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>916.2813960447885</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>916.2813960447884</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>406.8457045807058</v>
+        <v>40.69782849307467</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458551</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157523</v>
+        <v>552.0189757157527</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38113,7 +38113,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
